--- a/Домашнее задание Модуль 6 Потапова Любовь.xlsx
+++ b/Домашнее задание Модуль 6 Потапова Любовь.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="151">
   <si>
     <t>passed</t>
   </si>
@@ -1303,6 +1303,30 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1317,30 +1341,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1679,7 +1679,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1735,10 +1735,10 @@
   <dimension ref="A1:Z75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1782,7 +1782,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="16">
         <f>COUNTIF(L$8:L$56,"failed")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="16">
@@ -1827,7 +1827,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$56,"passed")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1870,7 +1870,9 @@
         <v>7</v>
       </c>
       <c r="K3" s="11"/>
-      <c r="L3" s="22"/>
+      <c r="L3" s="22">
+        <v>43964</v>
+      </c>
       <c r="M3" s="11"/>
       <c r="N3" s="22"/>
       <c r="O3" s="11"/>
@@ -1954,43 +1956,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="40" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="43"/>
+      <c r="J6" s="39"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="38" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="38" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="42"/>
+      <c r="P6" s="38"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="42"/>
+      <c r="R6" s="38"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="42"/>
+      <c r="T6" s="38"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -2000,29 +2002,29 @@
     </row>
     <row r="7" spans="1:26" ht="33.75" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="44"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="42"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="42"/>
+      <c r="N7" s="38"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="42"/>
+      <c r="P7" s="38"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="42"/>
+      <c r="R7" s="38"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="42"/>
+      <c r="T7" s="38"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -2052,7 +2054,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -2088,7 +2092,9 @@
       <c r="I9" s="28"/>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -2124,7 +2130,9 @@
       <c r="I10" s="21"/>
       <c r="J10" s="20"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -2703,7 +2711,9 @@
       <c r="I26" s="21"/>
       <c r="J26" s="20"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="6"/>
+      <c r="L26" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M26" s="11"/>
       <c r="N26" s="6"/>
       <c r="O26" s="11"/>
@@ -3560,16 +3570,16 @@
       <c r="B50" s="3">
         <v>43</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="46" t="s">
+      <c r="D50" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="47" t="s">
+      <c r="E50" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="46" t="s">
+      <c r="F50" s="36" t="s">
         <v>102</v>
       </c>
       <c r="G50" s="3"/>
@@ -3628,14 +3638,14 @@
       <c r="B52" s="3">
         <v>45</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46" t="s">
+      <c r="D52" s="36"/>
+      <c r="E52" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F52" s="46"/>
+      <c r="F52" s="36"/>
       <c r="G52" s="3"/>
       <c r="H52" s="20"/>
       <c r="I52" s="21"/>
@@ -4236,6 +4246,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -4243,12 +4259,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P8:P56 T8:T56 N8:N56 L8:L56 R8:R56">
